--- a/00_はじめてのエクセル.xlsx
+++ b/00_はじめてのエクセル.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1月" sheetId="1" r:id="rId1"/>
+    <sheet name="２月" sheetId="2" r:id="rId2"/>
+    <sheet name="集計" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
   <si>
     <t>游ゴシック</t>
     <rPh sb="0" eb="1">
@@ -186,6 +189,105 @@
   </si>
   <si>
     <t>SUM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>曜日</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>午前</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゼン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>午後</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高橋</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鈴木</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中村</t>
+    <rPh sb="0" eb="2">
+      <t>ナカムラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上原</t>
+    <rPh sb="0" eb="2">
+      <t>ウエハラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>井村</t>
+    <rPh sb="0" eb="2">
+      <t>イムラ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -288,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -297,6 +399,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -700,15 +808,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="6" width="2.77734375" customWidth="1"/>
     <col min="7" max="15" width="5.77734375" customWidth="1"/>
-    <col min="16" max="25" width="2.77734375" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" customWidth="1"/>
+    <col min="17" max="17" width="7.44140625" customWidth="1"/>
+    <col min="18" max="25" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.45">
@@ -1018,53 +1128,134 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="3:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="O18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" ht="18" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="3:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="J19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" ht="18" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>9</v>
       </c>
@@ -1075,4 +1266,50 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>